--- a/vco-1stmixer/vco-1stmixer/vco-1stmixer.xlsx
+++ b/vco-1stmixer/vco-1stmixer/vco-1stmixer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c82be81150d843e/Ham Radio/KiCad Files/W7ZOI Spectrum Analyzer/vco-1stmixer/vco-1stmixer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\andrew\github\Spectrum-Analyzer\vco-1stmixer\vco-1stmixer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00668BC8-6EFC-4BD0-ADC5-83A679B63E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9537B3-1B62-4B02-88DE-8A05D22BC050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="12758" yWindow="120" windowWidth="8857" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="My Lists Worksheet" sheetId="1" r:id="rId1"/>
@@ -317,7 +317,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,7 +624,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -632,9 +632,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
@@ -1175,5 +1180,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="84" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>